--- a/kadai_002/業績.xlsx
+++ b/kadai_002/業績.xlsx
@@ -40,7 +40,7 @@
     <t>2023-05-18</t>
   </si>
   <si>
-    <t>2023-0519</t>
+    <t>2023-05-19</t>
   </si>
   <si>
     <t>2023-05-20</t>
